--- a/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,61</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,05; -19,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,21; -20,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,97; -16,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,25; -15,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,18; -20,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,21; -20,48</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,52%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,18; -72,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,71; -78,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,76; -65,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,18; -74,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,0; -77,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,74; -80,22</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,27; -1,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; -8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,8; -13,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,56; -13,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,19; -9,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,63; -12,17</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,6%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,37; -2,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,02; -61,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,4; -71,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,63; -70,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; -51,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,76; -71,39</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,48</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; -5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,84; -4,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; -8,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,92; -6,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,73; -8,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; -6,58</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,73%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,26; -53,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -86,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,12; -69,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,02; -87,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,9; -70,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,34</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -9,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; -8,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,63; -16,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,72; -13,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; -14,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,23; -12,58</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,98%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,86; -56,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,2; -49,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,05; -84,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,49; -67,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,25; -76,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; -65,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-13,71</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-14,19</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-18,85</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-17,48</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-16,27</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-15,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; -10,41</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; -11,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; -16,44</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-20,0; -14,78</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-18,23; -14,34</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-17,83; -14,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-78,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-81,38%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-89,92%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-83,38%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-84,85%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-82,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-86,33; -62,68</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-87,08; -72,58</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-93,32; -85,62</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-87,48; -77,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-88,62; -77,87</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-86,17; -77,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-30,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-31,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-26,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-26,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-28,74</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-28,61</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-30.44209294410454</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-30.86476427080659</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-26.15681229058324</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-26.10441270809848</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-28.37390033084454</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-28.52598715600187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-51,05; -19,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-50,21; -20,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-37,97; -16,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-38,25; -15,69</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-40,18; -20,63</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; -20,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-50.51476858504846</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-49.89915497720936</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-37.90602755831191</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-38.34181000330079</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-39.44173263928406</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-39.06078372204535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-89,79%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-90,49%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-87,9%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-86,53%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-88,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-88,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-19.00646535124891</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-20.2755987535645</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-15.98826397993871</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-15.74185112222864</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-20.20059017452814</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-20.43219439045474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-97,18; -72,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-96,71; -78,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-95,76; -65,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-94,18; -74,44</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-95,0; -77,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-93,74; -80,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.8861114994031604</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.8984146588392202</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.8679347323087816</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8661960105910221</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8777983355138186</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.8825034187212745</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-13,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-18,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-18,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-15,16</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-16,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.9650436840873088</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.9633781872672879</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9608240885163216</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.942288238722698</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9376363979720232</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9360220530405823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,27; -1,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,5; -8,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,8; -13,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,56; -13,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; -9,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-19,63; -12,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.6887000068220602</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.7672195832630115</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.6365380246810909</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.7472167257370004</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.7458171600669078</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.7960222829808451</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-65,95%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-80,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-84,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-82,49%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-76,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-81,6%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-11.48181090093668</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-13.64745320690714</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-18.67953387622593</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-18.39694594345717</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-15.17532247996897</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-16.09631510669095</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-86,37; -2,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-90,02; -61,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-91,4; -71,88</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-89,63; -70,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-86,0; -51,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-87,76; -71,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.05076236129642</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.37443989839355</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-24.88201536736564</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.6634811047358</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-19.24878959594293</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-19.66467109616955</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-9,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,64</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-11,04</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-9,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.584328578805844</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-8.421315732728218</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-13.6244239670045</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-13.17540447457557</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-9.928359696619227</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-12.10205032146993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; -5,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; -4,11</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,41; -8,56</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,92; -6,75</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,73; -8,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-13,49; -6,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.6726951203292469</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.7995755422569469</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.8399888541452448</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.8272813253913388</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.7692414841302073</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.8159268666641044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-93,98%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-79,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-98,17%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-85,13%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-96,36%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-82,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.8598954987289272</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.8980086162486848</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.9096652647811488</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.8974390430239636</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8600539112432604</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8780733549818529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -74,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-92,26; -53,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -86,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-94,12; -69,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-99,02; -87,92</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-90,9; -70,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.1369799383512476</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.6052385581104878</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.7054788233487594</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.7051530225630218</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.5038215256715755</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.7099847796538257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-13,56</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-13,3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-20,27</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-17,61</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-16,78</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-15,34</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-9.689833389033845</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.148245465967378</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-12.24759284854633</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-10.65274381561119</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-11.04089783103729</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-9.474342438342093</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; -9,3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-17,26; -8,94</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; -16,98</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; -13,84</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-19,26; -14,3</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-18,23; -12,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.05435575840562</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.93856017706812</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-16.93695765824953</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-16.14741552305251</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-14.41526554507893</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-13.53278145962717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-77,34%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-75,81%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-92,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-79,89%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-85,27%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-77,98%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-5.625289324655008</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-4.150699296347544</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-8.166292493704727</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-6.82462304971039</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-8.032418676495784</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-6.576365837706592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-86,86; -56,26</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-87,2; -49,25</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-96,05; -84,99</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-88,49; -67,55</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-90,25; -76,21</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-86,0; -65,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.9420696310765679</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.792192630343109</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9804193441547938</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.8527517394073221</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9638799495761321</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.827118306091437</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-13,71</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-14,19</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-18,85</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-17,48</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-16,27</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-15,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.9209641365996556</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.9409512188548801</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.9900635586599551</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.9096880000366105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-16,72; -10,41</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-16,83; -11,55</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-21,34; -16,44</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-20,0; -14,78</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-18,23; -14,34</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; -14,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.7583420292484916</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.5322062031085606</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.8754628070817156</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.6902852079401965</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.89208681501295</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.7125652166097856</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-78,63%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-81,38%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-89,92%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-83,38%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-84,85%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-82,43%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-13.79489260578219</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-14.28201545113749</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-17.1411921384104</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-16.36767267292211</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-15.52517838798309</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-15.35535673869567</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-86,33; -62,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-87,08; -72,58</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-93,32; -85,62</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-87,48; -77,3</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-88,62; -77,87</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-86,17; -77,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-18.1288463799465</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-19.41237884865107</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-20.44777166813988</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-20.1536849702484</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-18.53158185618996</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-18.34696751941994</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-9.568744170593149</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-10.52398219751106</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-13.74355551697172</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-13.22694074588592</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-13.01464644737975</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-12.87549927017003</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.7980331083372912</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.8262131144837729</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.8758976607663715</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8363715948482234</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.8408751278457269</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.8316772431266652</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.8955129018938065</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.8923835749957378</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.923547580895404</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.8865942441486727</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.897256134944815</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.87281365693635</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.5534103082975717</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.7179988758107824</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.7939954099940536</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.7620116295341879</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.74818762363761</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.7731932374473623</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
